--- a/EstrattoConto MarioRossi.xlsx
+++ b/EstrattoConto MarioRossi.xlsx
@@ -707,7 +707,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,64 +716,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="17"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -905,151 +911,151 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1490,7 +1496,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1538,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1560,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>

--- a/EstrattoConto MarioRossi.xlsx
+++ b/EstrattoConto MarioRossi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="206">
   <si>
     <t>Estratto conto al 31.12.2019</t>
   </si>
@@ -65,7 +65,11 @@
     <t>17,62</t>
   </si>
   <si>
-    <t>ADDEBITO COMMISSIONE CONSULENZA EVOLUTA BANCA FIDEURAM</t>
+    <t>COMMISSIONI E SPESE SU FIDEIUSSIONI
+460011569862//CHARGES</t>
+  </si>
+  <si>
+    <t>31,25</t>
   </si>
   <si>
     <t>IMPOSTA BOLLO CONTO CORRENTE DPR642/72-DM24/5/2012</t>
@@ -96,9 +100,7 @@
 i phone COMM: 0,00 SPESE: 0,00 COMM SERV: 0,00</t>
   </si>
   <si>
-    <t>DISPOSIZIONE DI BONIFICO
-BONIFICO SEPA A: ANTONIO MARITATI PER: Rimborso spese mese settembre
-2019 COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+    <t>piano accumulo unicredit</t>
   </si>
   <si>
     <t>94,16</t>
@@ -107,7 +109,13 @@
     <t>04.10.19</t>
   </si>
   <si>
-    <t>SOTTOSCRIZIONI SUCCESSIVE PIANO DI ACCUMULO UNICREDIT</t>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: ICAL S.P.A. PER: ID contratto RM01- SISAC - Rif. cl iente
+006244 - Saldo preavviso di f attura n. 430 del 01/10/2019 COMM: 0,86 SPESE:
+0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>32.539,60</t>
   </si>
   <si>
     <t>07.10.19</t>
@@ -129,10 +137,13 @@
     <t>5,00</t>
   </si>
   <si>
+    <t>10.10.19</t>
+  </si>
+  <si>
     <t>12.10.19</t>
   </si>
   <si>
-    <t>VOSTRI EMOLUMENTI BONIFICO SEPA DA: OSPEDALE SAN RAFFAELE MILANO</t>
+    <t>VOSTRI EMOLUMENTI BONIFICO SEPA DA: UNICREDIT S.P.A.</t>
   </si>
   <si>
     <t>15.10.19</t>
@@ -148,7 +159,13 @@
     <t>30.10.19</t>
   </si>
   <si>
-    <t>NUOVA SOTTOSCRIZIONE FONDO MONETARIO GOLDMAN SACHS</t>
+    <t>sottoscrizione fondo monetario</t>
+  </si>
+  <si>
+    <t>967,17</t>
+  </si>
+  <si>
+    <t>azioni apple</t>
   </si>
   <si>
     <t>31.10.19</t>
@@ -230,6 +247,9 @@
     <t>81,66</t>
   </si>
   <si>
+    <t>10.11.19</t>
+  </si>
+  <si>
     <t>12.11.19</t>
   </si>
   <si>
@@ -296,6 +316,20 @@
   <si>
     <t>DISPOSIZIONE DI BONIFICO
 BONIFICO SEPA A: ESEDRA SRL NQ AGENTE SOCIETA' REALE MUTUA PER: FONDO PENSIONE N. 5637183 - MICHELE ALOISI - RIMESSA RELATIVA AL TFR M ATURATO NEL MESE DI OTTOBRE 2019 COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: ESEDRA SRL NQ AGENTE SOCIETA' REALE MUTUA</t>
+  </si>
+  <si>
+    <t>PER: FONDO PENSIONE N. 5637203 - MICHELE DE GIACOMO - RIMESSA</t>
+  </si>
+  <si>
+    <t>382,73</t>
+  </si>
+  <si>
+    <t>RELATIVA AL T FR MATURATO NEL MESE DI OTTOBRE 2019 COMM: 0,86
+SPESE: 0,00</t>
   </si>
   <si>
     <t>DISPOSIZIONE DI BONIFICO
@@ -365,13 +399,6 @@
     <t>29.11.19</t>
   </si>
   <si>
-    <t>COMMISSIONI E SPESE SU FIDEIUSSIONI
-460011569862//CHARGES</t>
-  </si>
-  <si>
-    <t>31,25</t>
-  </si>
-  <si>
     <t>DISPOSIZIONE DI BONIFICO
 BONIFICO SEPA A: ICT LEGAL CONSULTING BALBONI, BOLOG NINI PER:
 Saldo fattura proforma n. 458 del 3 0/10/2019 COMM: 0,86 SPESE: 0,00 COMM
@@ -419,9 +446,6 @@
     <t>3.000,00</t>
   </si>
   <si>
-    <t>PAGAMENTO IMU</t>
-  </si>
-  <si>
     <t>06.12.19</t>
   </si>
   <si>
@@ -474,7 +498,15 @@
     <t>09.12.19</t>
   </si>
   <si>
-    <t xml:space="preserve">SOTTOSCRIZIONE BTP </t>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: MARIAGRAZIA DELOGU PER: Saldo fattura n. 102/2019 del
+08/11/2019 COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>2.544,60</t>
+  </si>
+  <si>
+    <t>10.12.19</t>
   </si>
   <si>
     <t>12.12.19</t>
@@ -528,16 +560,27 @@
     <t>1.268,54</t>
   </si>
   <si>
-    <t>PAGAMENTO RETTA SCUOLA SUPERIORE G. VERDI</t>
-  </si>
-  <si>
-    <t>PAGAMENTO RETTA SCUOLA PRIMARIA A. MANZONI</t>
+    <t>DISPOSIZIONE PAGAMENTO STIPENDI
+DISTINTA DISPOS.NI NUM. 60363901NUMERO DISPOS.NI 5 COMM.NI : 3,05</t>
+  </si>
+  <si>
+    <t>12.796,05</t>
+  </si>
+  <si>
+    <t>DISPOSIZIONE PAGAMENTO STIPENDI
+DISTINTA DISPOS.NI NUM. 60363900 NUMERO DISPOS.NI 1COMM.NI : 0,54</t>
+  </si>
+  <si>
+    <t>1.841,54</t>
   </si>
   <si>
     <t>19.12.19</t>
   </si>
   <si>
-    <t>ASSEGNO DI MANTENIMENTO</t>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: CARLO DI CARLO PER: Saldo parcella n. FPR 26/19 17/12/2
+019 - (saldo compenso componente Co llegio dei Revisori dei Conti SISAC )
+COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
   </si>
   <si>
     <t>2.022,55</t>
@@ -551,7 +594,12 @@
     <t>209,06</t>
   </si>
   <si>
-    <t>SOTTOSCRIZIONE AZIONI FIAT</t>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: STUDIO ASSOCIATO ANGIOLETTI- CASIG LIA PER: Saldo
+parcella n. 147/001del 18/12 /2019 COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>170,94</t>
   </si>
   <si>
     <t>DISPOSIZIONE DI BONIFICO
@@ -629,7 +677,11 @@
     <t>27.12.19</t>
   </si>
   <si>
-    <t>CEDOLE FONDO FIDELITY</t>
+    <t>DISPOSIZIONE PAGAMENTO STIPENDI
+DISTINTA DISPOS.NI NUM. 60461246 NUMERO DISPOS.NI 5 COMM.NI : 3,05</t>
+  </si>
+  <si>
+    <t>9.049,05</t>
   </si>
   <si>
     <t>DISPOSIZIONE PAGAMENTO STIPENDI
@@ -682,7 +734,12 @@
     <t>31.12.19</t>
   </si>
   <si>
-    <t>SOTTOSCRIZIONE DI OPERAZIONI E SERVIZI DI INVESTIMENTO</t>
+    <t>ADDEBITO SEPA DD PER FATTURA A VOSTRO CARICO
+Incasso 214-Doc n. 7302/A del 05/11/2019 SDD da IT230010000007590501008E
+SERVIZI S.P.A. mandato nr. 488C84510700 Per Doc n. 7302.A del 05.11.2019</t>
+  </si>
+  <si>
+    <t>365,51</t>
   </si>
   <si>
     <t>ADDEBITO SEPA DD PER FATTURA A VOSTRO CARICO
@@ -707,7 +764,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,70 +773,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="17"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -856,17 +907,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -905,157 +945,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1372,7 +1423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1496,7 +1547,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1589,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1548,8 +1599,8 @@
       <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24">
-        <v>443</v>
+      <c r="D9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="3"/>
@@ -1560,7 +1611,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -1568,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="18"/>
@@ -1584,16 +1635,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
       <c r="A11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="3"/>
@@ -1606,16 +1657,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
       <c r="A12" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="3"/>
@@ -1628,13 +1679,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33">
       <c r="A13" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="24">
@@ -1650,16 +1701,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="3"/>
@@ -1670,18 +1721,18 @@
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="24">
-        <v>20000</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="3"/>
@@ -1694,16 +1745,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42">
       <c r="A16" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="3"/>
@@ -1716,16 +1767,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24">
       <c r="A17" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
@@ -1738,17 +1789,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24">
-        <v>10000</v>
+        <v>3500.25</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1760,16 +1811,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24">
       <c r="A19" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="3"/>
@@ -1780,18 +1831,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="35">
       <c r="A20" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="21">
-        <v>10000</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="5"/>
@@ -1804,16 +1855,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="5"/>
@@ -1826,16 +1877,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24">
       <c r="A22" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="5"/>
@@ -1848,16 +1899,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="35">
       <c r="A23" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="5"/>
@@ -1870,13 +1921,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24">
       <c r="A24" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>15</v>
@@ -1892,17 +1943,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="35">
       <c r="A25" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1914,16 +1965,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="35">
       <c r="A26" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="5"/>
@@ -1936,16 +1987,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="35">
       <c r="A27" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="5"/>
@@ -1958,16 +2009,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46">
       <c r="A28" s="19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="5"/>
@@ -1980,16 +2031,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="35">
       <c r="A29" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="5"/>
@@ -2002,16 +2053,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="35">
       <c r="A30" s="19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="5"/>
@@ -2024,16 +2075,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="35">
       <c r="A31" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="5"/>
@@ -2046,17 +2097,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24">
       <c r="A32" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24">
-        <v>10000</v>
+        <v>3500.25</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2068,16 +2119,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33.5">
       <c r="A33" s="19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="5"/>
@@ -2090,16 +2141,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="32.5">
       <c r="A34" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="5"/>
@@ -2112,16 +2163,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="36.5">
       <c r="A35" s="19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="5"/>
@@ -2134,16 +2185,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="40">
       <c r="A36" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="5"/>
@@ -2156,16 +2207,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="42">
       <c r="A37" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="5"/>
@@ -2178,16 +2229,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="41.5">
       <c r="A38" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="5"/>
@@ -2200,16 +2251,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="40">
       <c r="A39" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="5"/>
@@ -2222,16 +2273,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30.5">
       <c r="A40" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="5"/>
@@ -2244,13 +2295,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="42.5">
       <c r="A41" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D41" s="32">
         <v>179.26</v>
@@ -2264,20 +2315,14 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="40">
-      <c r="A42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="29"/>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2286,20 +2331,20 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="27">
-      <c r="A43" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="30"/>
+      <c r="C43" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="41"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2309,19 +2354,13 @@
       <c r="L43" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="29"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2330,20 +2369,20 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="30"/>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="40">
+      <c r="A45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="29"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2352,20 +2391,20 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="29"/>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="27">
+      <c r="A46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="30"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2375,19 +2414,19 @@
       <c r="L46" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="30"/>
+      <c r="A47" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -2397,19 +2436,19 @@
       <c r="L47" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="29"/>
+      <c r="A48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="30"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2419,19 +2458,19 @@
       <c r="L48" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="30"/>
+      <c r="A49" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="29"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -2441,19 +2480,19 @@
       <c r="L49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="20" t="s">
+      <c r="A50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="29"/>
+      <c r="B50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="30"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2462,20 +2501,20 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="25.5">
-      <c r="A51" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="30"/>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="29"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2485,19 +2524,19 @@
       <c r="L51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="29"/>
+      <c r="A52" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="30"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -2506,20 +2545,20 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="37">
-      <c r="A53" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="30"/>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="29"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -2529,19 +2568,19 @@
       <c r="L53" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="25.5">
-      <c r="A54" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="29"/>
+      <c r="A54" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="30"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2550,20 +2589,20 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="31.5">
-      <c r="A55" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="B55" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="29"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -2573,19 +2612,19 @@
       <c r="L55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="37">
-      <c r="A56" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="21" t="s">
+      <c r="A56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="29"/>
+      <c r="D56" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="30"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -2594,20 +2633,20 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="35.5">
-      <c r="A57" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="24" t="s">
-        <v>47</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="25.5">
+      <c r="A57" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="29"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2616,20 +2655,20 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="27">
-      <c r="A58" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="31.5">
+      <c r="A58" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="B58" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="30"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2638,20 +2677,20 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="27">
-      <c r="A59" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="24">
-        <v>6000</v>
-      </c>
-      <c r="E59" s="30"/>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="37">
+      <c r="A59" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="29"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2660,20 +2699,20 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="41.5">
-      <c r="A60" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="35.5">
+      <c r="A60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="B60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -2682,20 +2721,20 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="37.5">
-      <c r="A61" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="30"/>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="27">
+      <c r="A61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="29"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2704,20 +2743,20 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="34.5">
-      <c r="A62" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="27">
+      <c r="A62" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="29"/>
+      <c r="B62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="30"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2726,20 +2765,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="41.5">
+      <c r="A63" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="30"/>
+      <c r="B63" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="29"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2749,19 +2788,19 @@
       <c r="L63" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="37.5">
-      <c r="A64" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="29"/>
+      <c r="A64" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="30"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2770,20 +2809,20 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="35.5">
-      <c r="A65" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="30"/>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="34.5">
+      <c r="A65" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="29"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2792,20 +2831,20 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="35.5">
-      <c r="A66" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="21">
-        <v>200000</v>
-      </c>
-      <c r="E66" s="29"/>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="30"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2814,42 +2853,42 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="24">
-      <c r="A67" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24">
-        <v>10000</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="37.5">
+      <c r="A67" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="30">
-      <c r="A68" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="35.5">
+      <c r="A68" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="29"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2858,20 +2897,20 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="35.5">
+      <c r="A69" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="B69" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="30"/>
+      <c r="D69" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="29"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -2880,42 +2919,42 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="24">
+      <c r="A70" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="B70" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24">
+        <v>3500.25</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="28.5">
-      <c r="A71" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="30">
+      <c r="A71" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="B71" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="30"/>
+      <c r="C71" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -2924,20 +2963,20 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="30.5">
-      <c r="A72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="29"/>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="30"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -2946,20 +2985,20 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="36">
-      <c r="A73" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="24">
-        <v>500</v>
-      </c>
-      <c r="E73" s="30"/>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="29"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -2968,20 +3007,20 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="29">
-      <c r="A74" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="21">
-        <v>200</v>
-      </c>
-      <c r="E74" s="29"/>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="28.5">
+      <c r="A74" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="30"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -2990,20 +3029,20 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="51.5">
-      <c r="A75" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="30.5">
+      <c r="A75" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="B75" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="29"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3012,20 +3051,20 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="38.5">
-      <c r="A76" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="29"/>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="36">
+      <c r="A76" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="30"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3034,20 +3073,20 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="24">
-        <v>5000</v>
-      </c>
-      <c r="E77" s="30"/>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="29">
+      <c r="A77" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="29"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3056,20 +3095,20 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="33"/>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="51.5">
+      <c r="A78" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="30"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3078,20 +3117,20 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="29">
-      <c r="A79" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="30"/>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="38.5">
+      <c r="A79" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="29"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3100,20 +3139,20 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="31.5">
-      <c r="A80" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="29"/>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="30"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -3123,19 +3162,19 @@
       <c r="L80" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="24" t="s">
+      <c r="A81" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="30"/>
+      <c r="B81" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="33"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -3144,20 +3183,20 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="34.5">
-      <c r="A82" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="29"/>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="29">
+      <c r="A82" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="30"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3166,20 +3205,20 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="35.5">
-      <c r="A83" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="30"/>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="31.5">
+      <c r="A83" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="29"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3189,19 +3228,19 @@
       <c r="L83" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E84" s="29"/>
+      <c r="A84" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="30"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3210,14 +3249,20 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="34.5">
+      <c r="A85" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="29"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -3226,20 +3271,20 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" s="42" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="35.5">
+      <c r="A86" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="43"/>
+      <c r="B86" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="30"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -3249,13 +3294,19 @@
       <c r="L86" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
+      <c r="A87" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="29"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -3264,20 +3315,14 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="53">
-      <c r="A88" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" s="29"/>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3286,20 +3331,20 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="30.5">
-      <c r="A89" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" s="24">
-        <v>2000</v>
-      </c>
-      <c r="E89" s="30"/>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="41"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -3308,20 +3353,14 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="33">
-      <c r="A90" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" s="29"/>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3330,20 +3369,20 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="27.5">
-      <c r="A91" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="30"/>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="53">
+      <c r="A91" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="29"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3352,20 +3391,20 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="25.5">
-      <c r="A92" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E92" s="29"/>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="30.5">
+      <c r="A92" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" s="30"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3374,20 +3413,20 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="48.5">
-      <c r="A93" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="30"/>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="33">
+      <c r="A93" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="29"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -3396,20 +3435,20 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="36">
-      <c r="A94" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="27.5">
+      <c r="A94" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="B94" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="30"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3418,20 +3457,20 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="45.5">
-      <c r="A95" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="30"/>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="25.5">
+      <c r="A95" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="29"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -3440,20 +3479,20 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="35.5">
-      <c r="A96" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="21">
-        <v>270000</v>
-      </c>
-      <c r="E96" s="29"/>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="48.5">
+      <c r="A96" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="30"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3463,19 +3502,19 @@
       <c r="L96" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="36">
-      <c r="A97" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E97" s="30"/>
+      <c r="A97" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="29"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -3484,20 +3523,20 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="31.5">
-      <c r="A98" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" s="29"/>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="45.5">
+      <c r="A98" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="30"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -3506,20 +3545,20 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="24" t="s">
-        <v>190</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="35.5">
+      <c r="A99" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="29"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -3528,20 +3567,20 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.5">
-      <c r="A100" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="21" t="s">
-        <v>191</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="36">
+      <c r="A100" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="30"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -3550,12 +3589,20 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.5">
-      <c r="A101" s="47"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="49"/>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="31.5">
+      <c r="A101" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="29"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -3564,9 +3611,69 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="E102" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="20.5">
+      <c r="A103" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.5">
+      <c r="A104" s="47"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
